--- a/docs/Агрегація результатів.xlsx
+++ b/docs/Агрегація результатів.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="23">
   <si>
     <t>BlockSize: 5</t>
   </si>
@@ -63,6 +63,24 @@
   <si>
     <t xml:space="preserve">20000 на 20000 </t>
   </si>
+  <si>
+    <t>3 Потоки</t>
+  </si>
+  <si>
+    <t>6 Потоків</t>
+  </si>
+  <si>
+    <t>9 Потоків</t>
+  </si>
+  <si>
+    <t>12 Потоків</t>
+  </si>
+  <si>
+    <t>Прискорення</t>
+  </si>
+  <si>
+    <t>Послідовний</t>
+  </si>
 </sst>
 </file>
 
@@ -88,15 +106,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -164,14 +212,23 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -193,6 +250,32 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -269,7 +352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:f>Sheet1!$L$4:$L$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -309,7 +392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:f>Sheet1!$M$4:$M$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -349,17 +432,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$10</c:f>
+              <c:f>Sheet1!$N$4:$N$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="815114511"/>
-        <c:axId val="539618236"/>
+        <c:axId val="1911146700"/>
+        <c:axId val="635204444"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="815114511"/>
+        <c:axId val="1911146700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +469,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Роздільність зображення</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -404,17 +487,17 @@
             <a:pPr lvl="0">
               <a:defRPr b="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539618236"/>
+        <c:crossAx val="635204444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539618236"/>
+        <c:axId val="635204444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +532,7 @@
                 <a:pPr lvl="0">
                   <a:defRPr b="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
@@ -457,11 +540,11 @@
                 <a:r>
                   <a:rPr b="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Час виконання</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -489,7 +572,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815114511"/>
+        <c:crossAx val="1911146700"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -502,7 +585,1069 @@
           <a:pPr lvl="0">
             <a:defRPr b="0">
               <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Аналіз ефективності паралельного алгоритму</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Потоки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>9 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$15:$N$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="34A853"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$15:$O$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1577020390"/>
+        <c:axId val="1235101565"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1577020390"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Роздільність зображення</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235101565"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1235101565"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Час виконання</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577020390"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Аналіз ефективності паралельного алгоритму</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Потоки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$26:$L$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$26:$M$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>9 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$26:$N$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="34A853"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$26:$O$32</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="754233652"/>
+        <c:axId val="1956388075"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="754233652"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Роздільність зображення</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956388075"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1956388075"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Час виконання</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754233652"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Аналіз ефективності паралельного алгоритму</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 Потоки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$L$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$37:$M$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>9 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$37:$N$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 Потоків</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="34A853"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$37:$O$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="547430695"/>
+        <c:axId val="1526237092"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547430695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Роздільність зображення</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1526237092"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1526237092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Час виконання</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547430695"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
@@ -519,10 +1664,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -537,6 +1682,81 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -753,289 +1973,2272 @@
     <col customWidth="1" min="12" max="12" width="13.38"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>1000.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1028.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>1000.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>964.0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>1000.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>972.0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8">
-        <v>1021.0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>951.0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>932.0</v>
+      <c r="L4" s="9">
+        <v>290.0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>222.0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>219.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>2000.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>4022.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>2000.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>3842.0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>2000.0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>3828.0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8">
-        <v>4019.0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3811.0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>3791.0</v>
+      <c r="L5" s="9">
+        <v>1022.0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>868.0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>853.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>3000.0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>9739.0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>3000.0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>9206.0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>3000.0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>8923.0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="8">
-        <v>9725.0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>9195.0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>8823.0</v>
+      <c r="L6" s="9">
+        <v>2131.0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1977.0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1883.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>5000.0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>26087.0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>5000.0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>25506.0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>5000.0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>24971.0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="8">
-        <v>25087.0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>25316.0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>24835.0</v>
+      <c r="L7" s="9">
+        <v>6112.0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5612.0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>5359.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>10000.0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>102658.0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>10000.0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>103864.0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <v>10000.0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>99736.0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="8">
-        <v>98351.0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>97864.0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>95421.0</v>
+      <c r="L8" s="9">
+        <v>23416.0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>21374.0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>20755.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>15000.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>240009.0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>15000.0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>230342.0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <v>15000.0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>227760.0</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="8">
-        <v>225013.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>217542.0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>211361.0</v>
+      <c r="L9" s="9">
+        <v>54763.0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>52781.0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>49821.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>20000.0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>443168.0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>20000.0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>430280.0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>20000.0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>401939.0</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="9">
-        <v>415168.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>412280.0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>401939.0</v>
-      </c>
+      <c r="L10" s="10">
+        <v>94514.0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>87925.0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>84950.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="K12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="12"/>
+      <c r="L13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="8"/>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="9">
+        <v>56.0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="K16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="9">
+        <v>128.0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>92.0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>74.0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="K17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="9">
+        <v>303.0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>202.0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>157.0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="K18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="9">
+        <v>993.0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>494.0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>416.0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>375.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="K19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="9">
+        <v>3417.0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>2206.0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1720.0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1488.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="K20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="9">
+        <v>7610.0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>5017.0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>3913.0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>3677.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="K21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="10">
+        <v>13234.0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>8739.0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>6654.0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>6374.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="8"/>
+      <c r="L25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="K26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="K27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="9">
+        <v>141.0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>89.0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>69.0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="K28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="9">
+        <v>288.0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>189.0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>157.0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="K29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="9">
+        <v>776.0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>497.0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>435.0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>402.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="K30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="9">
+        <v>3252.0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>2076.0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1711.0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1408.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="K31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="9">
+        <v>7342.0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4181.0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>3677.0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>3259.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="K32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="10">
+        <v>12978.0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>7579.0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>7411.0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>6171.0</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="P33" s="16"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="K34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="20"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="20"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="20"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="K37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="9">
+        <v>36.0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="20"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="20"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="K38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="9">
+        <v>123.0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>83.0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>74.0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>71.0</v>
+      </c>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="20"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="20"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="K39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="9">
+        <v>287.0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>194.0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>166.0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>163.0</v>
+      </c>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="20"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="20"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="K40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="9">
+        <v>781.0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>499.0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>407.0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>404.0</v>
+      </c>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="20"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="20"/>
+      <c r="K41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="9">
+        <v>3277.0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>2178.0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1564.0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1455.0</v>
+      </c>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="20"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="K42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="9">
+        <v>7098.0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>4611.0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>3566.0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>3363.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="K43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="10">
+        <v>12677.0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>7936.0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>7411.0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>5816.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="K45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="K48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" ref="L48:L54" si="1"> ROUND( L4 / L15 , 2)</f>
+        <v>5.18</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" ref="M48:M54" si="2"> ROUND( L4 / M15 , 2)</f>
+        <v>12.61</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" ref="N48:N54" si="3"> ROUND( L4 / N15 , 2)</f>
+        <v>14.5</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:O54" si="4"> ROUND( L4 / O15 , 2)</f>
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="K49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="1"/>
+        <v>7.98</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="2"/>
+        <v>11.11</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="3"/>
+        <v>13.81</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="4"/>
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="K50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="1"/>
+        <v>7.03</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="2"/>
+        <v>10.55</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="3"/>
+        <v>13.57</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="4"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="K51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="1"/>
+        <v>6.16</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="2"/>
+        <v>12.37</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="3"/>
+        <v>14.69</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="4"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="K52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="1"/>
+        <v>6.85</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="2"/>
+        <v>10.61</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="3"/>
+        <v>13.61</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="4"/>
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="K53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="2"/>
+        <v>10.92</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="4"/>
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="K54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="1"/>
+        <v>7.14</v>
+      </c>
+      <c r="M54" s="9">
+        <f t="shared" si="2"/>
+        <v>10.82</v>
+      </c>
+      <c r="N54" s="9">
+        <f t="shared" si="3"/>
+        <v>14.2</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="4"/>
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="K56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="K59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" ref="L59:L65" si="5"> ROUND( M4 / L26 , 2)</f>
+        <v>4.93</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" ref="M59:M65" si="6"> ROUND( M4 / M26 , 2)</f>
+        <v>7.4</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" ref="N59:N65" si="7"> ROUND( M4 / N26 , 2)</f>
+        <v>9.65</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" ref="O59:O65" si="8"> ROUND( M4 / O26 , 2)</f>
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="K60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="9">
+        <f t="shared" si="5"/>
+        <v>6.16</v>
+      </c>
+      <c r="M60" s="9">
+        <f t="shared" si="6"/>
+        <v>9.75</v>
+      </c>
+      <c r="N60" s="9">
+        <f t="shared" si="7"/>
+        <v>12.58</v>
+      </c>
+      <c r="O60" s="9">
+        <f t="shared" si="8"/>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="K61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="9">
+        <f t="shared" si="5"/>
+        <v>6.86</v>
+      </c>
+      <c r="M61" s="9">
+        <f t="shared" si="6"/>
+        <v>10.46</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="7"/>
+        <v>12.59</v>
+      </c>
+      <c r="O61" s="9">
+        <f t="shared" si="8"/>
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="K62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="9">
+        <f t="shared" si="5"/>
+        <v>7.23</v>
+      </c>
+      <c r="M62" s="9">
+        <f t="shared" si="6"/>
+        <v>11.29</v>
+      </c>
+      <c r="N62" s="9">
+        <f t="shared" si="7"/>
+        <v>12.9</v>
+      </c>
+      <c r="O62" s="9">
+        <f t="shared" si="8"/>
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="K63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="5"/>
+        <v>6.57</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="6"/>
+        <v>10.3</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="7"/>
+        <v>12.49</v>
+      </c>
+      <c r="O63" s="9">
+        <f t="shared" si="8"/>
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="K64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="9">
+        <f t="shared" si="5"/>
+        <v>7.19</v>
+      </c>
+      <c r="M64" s="9">
+        <f t="shared" si="6"/>
+        <v>12.62</v>
+      </c>
+      <c r="N64" s="9">
+        <f t="shared" si="7"/>
+        <v>14.35</v>
+      </c>
+      <c r="O64" s="9">
+        <f t="shared" si="8"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="K65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="9">
+        <f t="shared" si="5"/>
+        <v>6.77</v>
+      </c>
+      <c r="M65" s="9">
+        <f t="shared" si="6"/>
+        <v>11.6</v>
+      </c>
+      <c r="N65" s="9">
+        <f t="shared" si="7"/>
+        <v>11.86</v>
+      </c>
+      <c r="O65" s="9">
+        <f t="shared" si="8"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="K67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="K70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" ref="L70:L76" si="9"> ROUND( N4 / L37 , 2)</f>
+        <v>6.08</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" ref="M70:M76" si="10"> ROUND( N4 / M37 , 2)</f>
+        <v>8.42</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" ref="N70:N76" si="11"> ROUND( N4 / N37 , 2)</f>
+        <v>10.43</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" ref="O70:O76" si="12"> ROUND( N4 / O37 , 2)</f>
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="K71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" si="9"/>
+        <v>6.93</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" si="10"/>
+        <v>10.28</v>
+      </c>
+      <c r="N71" s="9">
+        <f t="shared" si="11"/>
+        <v>11.53</v>
+      </c>
+      <c r="O71" s="9">
+        <f t="shared" si="12"/>
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="K72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="9"/>
+        <v>6.56</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="10"/>
+        <v>9.71</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="11"/>
+        <v>11.34</v>
+      </c>
+      <c r="O72" s="9">
+        <f t="shared" si="12"/>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="K73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="9"/>
+        <v>6.86</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="10"/>
+        <v>10.74</v>
+      </c>
+      <c r="N73" s="9">
+        <f t="shared" si="11"/>
+        <v>13.17</v>
+      </c>
+      <c r="O73" s="9">
+        <f t="shared" si="12"/>
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="K74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="9"/>
+        <v>6.33</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="10"/>
+        <v>9.53</v>
+      </c>
+      <c r="N74" s="9">
+        <f t="shared" si="11"/>
+        <v>13.27</v>
+      </c>
+      <c r="O74" s="9">
+        <f t="shared" si="12"/>
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="K75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="9"/>
+        <v>7.02</v>
+      </c>
+      <c r="M75" s="9">
+        <f t="shared" si="10"/>
+        <v>10.8</v>
+      </c>
+      <c r="N75" s="9">
+        <f t="shared" si="11"/>
+        <v>13.97</v>
+      </c>
+      <c r="O75" s="9">
+        <f t="shared" si="12"/>
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="K76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="9"/>
+        <v>6.7</v>
+      </c>
+      <c r="M76" s="9">
+        <f t="shared" si="10"/>
+        <v>10.7</v>
+      </c>
+      <c r="N76" s="9">
+        <f t="shared" si="11"/>
+        <v>11.46</v>
+      </c>
+      <c r="O76" s="9">
+        <f t="shared" si="12"/>
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="K78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="K79" s="12"/>
+      <c r="L79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="K80" s="8"/>
+      <c r="L80" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="K81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="9">
+        <v>290.0</v>
+      </c>
+      <c r="M81" s="9">
+        <v>56.0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="O81" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="P81" s="9">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="K82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="9">
+        <v>1022.0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>128.0</v>
+      </c>
+      <c r="N82" s="9">
+        <v>92.0</v>
+      </c>
+      <c r="O82" s="9">
+        <v>74.0</v>
+      </c>
+      <c r="P82" s="9">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="K83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="9">
+        <v>2131.0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>303.0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>202.0</v>
+      </c>
+      <c r="O83" s="9">
+        <v>157.0</v>
+      </c>
+      <c r="P83" s="9">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="K84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" s="9">
+        <v>6112.0</v>
+      </c>
+      <c r="M84" s="9">
+        <v>993.0</v>
+      </c>
+      <c r="N84" s="9">
+        <v>494.0</v>
+      </c>
+      <c r="O84" s="9">
+        <v>416.0</v>
+      </c>
+      <c r="P84" s="9">
+        <v>375.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="K85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="9">
+        <v>23416.0</v>
+      </c>
+      <c r="M85" s="9">
+        <v>3417.0</v>
+      </c>
+      <c r="N85" s="9">
+        <v>2206.0</v>
+      </c>
+      <c r="O85" s="9">
+        <v>1720.0</v>
+      </c>
+      <c r="P85" s="9">
+        <v>1488.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="K86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" s="9">
+        <v>54763.0</v>
+      </c>
+      <c r="M86" s="9">
+        <v>7610.0</v>
+      </c>
+      <c r="N86" s="9">
+        <v>5017.0</v>
+      </c>
+      <c r="O86" s="9">
+        <v>3913.0</v>
+      </c>
+      <c r="P86" s="9">
+        <v>3677.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="K87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="10">
+        <v>94514.0</v>
+      </c>
+      <c r="M87" s="10">
+        <v>13234.0</v>
+      </c>
+      <c r="N87" s="10">
+        <v>8739.0</v>
+      </c>
+      <c r="O87" s="10">
+        <v>6654.0</v>
+      </c>
+      <c r="P87" s="10">
+        <v>6374.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+    </row>
+    <row r="89">
+      <c r="K89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90">
+      <c r="K90" s="12"/>
+      <c r="L90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="K91" s="8"/>
+      <c r="L91" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="K92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="9">
+        <v>222.0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="N92" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="O92" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="P92" s="9">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="K93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" s="9">
+        <v>868.0</v>
+      </c>
+      <c r="M93" s="9">
+        <v>141.0</v>
+      </c>
+      <c r="N93" s="9">
+        <v>89.0</v>
+      </c>
+      <c r="O93" s="9">
+        <v>69.0</v>
+      </c>
+      <c r="P93" s="9">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="K94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="9">
+        <v>1977.0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>288.0</v>
+      </c>
+      <c r="N94" s="9">
+        <v>189.0</v>
+      </c>
+      <c r="O94" s="9">
+        <v>157.0</v>
+      </c>
+      <c r="P94" s="9">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="K95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95" s="9">
+        <v>5612.0</v>
+      </c>
+      <c r="M95" s="9">
+        <v>776.0</v>
+      </c>
+      <c r="N95" s="9">
+        <v>497.0</v>
+      </c>
+      <c r="O95" s="9">
+        <v>435.0</v>
+      </c>
+      <c r="P95" s="9">
+        <v>402.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="K96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="9">
+        <v>21374.0</v>
+      </c>
+      <c r="M96" s="9">
+        <v>3252.0</v>
+      </c>
+      <c r="N96" s="9">
+        <v>2076.0</v>
+      </c>
+      <c r="O96" s="9">
+        <v>1711.0</v>
+      </c>
+      <c r="P96" s="9">
+        <v>1408.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="K97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="9">
+        <v>52781.0</v>
+      </c>
+      <c r="M97" s="9">
+        <v>7342.0</v>
+      </c>
+      <c r="N97" s="9">
+        <v>4181.0</v>
+      </c>
+      <c r="O97" s="9">
+        <v>3677.0</v>
+      </c>
+      <c r="P97" s="9">
+        <v>3259.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="K98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="10">
+        <v>87925.0</v>
+      </c>
+      <c r="M98" s="10">
+        <v>12978.0</v>
+      </c>
+      <c r="N98" s="10">
+        <v>7579.0</v>
+      </c>
+      <c r="O98" s="10">
+        <v>7411.0</v>
+      </c>
+      <c r="P98" s="10">
+        <v>6171.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100">
+      <c r="K100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="K101" s="12"/>
+      <c r="L101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="K102" s="8"/>
+      <c r="L102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P102" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="K103" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="9">
+        <v>219.0</v>
+      </c>
+      <c r="M103" s="9">
+        <v>36.0</v>
+      </c>
+      <c r="N103" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="O103" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="P103" s="9">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="K104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" s="9">
+        <v>853.0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>123.0</v>
+      </c>
+      <c r="N104" s="9">
+        <v>83.0</v>
+      </c>
+      <c r="O104" s="9">
+        <v>74.0</v>
+      </c>
+      <c r="P104" s="9">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="K105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" s="9">
+        <v>1883.0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>287.0</v>
+      </c>
+      <c r="N105" s="9">
+        <v>194.0</v>
+      </c>
+      <c r="O105" s="9">
+        <v>166.0</v>
+      </c>
+      <c r="P105" s="9">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="K106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" s="9">
+        <v>5359.0</v>
+      </c>
+      <c r="M106" s="9">
+        <v>781.0</v>
+      </c>
+      <c r="N106" s="9">
+        <v>499.0</v>
+      </c>
+      <c r="O106" s="9">
+        <v>407.0</v>
+      </c>
+      <c r="P106" s="9">
+        <v>404.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="K107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="9">
+        <v>20755.0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>3277.0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>2178.0</v>
+      </c>
+      <c r="O107" s="9">
+        <v>1564.0</v>
+      </c>
+      <c r="P107" s="9">
+        <v>1455.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="K108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="9">
+        <v>49821.0</v>
+      </c>
+      <c r="M108" s="9">
+        <v>7098.0</v>
+      </c>
+      <c r="N108" s="9">
+        <v>4611.0</v>
+      </c>
+      <c r="O108" s="9">
+        <v>3566.0</v>
+      </c>
+      <c r="P108" s="9">
+        <v>3363.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="K109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" s="10">
+        <v>84950.0</v>
+      </c>
+      <c r="M109" s="10">
+        <v>12677.0</v>
+      </c>
+      <c r="N109" s="10">
+        <v>7936.0</v>
+      </c>
+      <c r="O109" s="10">
+        <v>7411.0</v>
+      </c>
+      <c r="P109" s="10">
+        <v>5816.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="35">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="L89:P89"/>
+    <mergeCell ref="L90:P90"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="L101:P101"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L57:O57"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
